--- a/0-ModelModifications/manual/routesummarynames_manual.xlsx
+++ b/0-ModelModifications/manual/routesummarynames_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\TDM-Scenario-Comparison-Toolbox\0-ModelModifications\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570C834-2106-4EE0-A954-76993F7C965E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571DC2A-E999-430F-85DE-738BF6297CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'names from web2'!$A$1:$E$84</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$218</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="882">
   <si>
     <t>WebsiteName</t>
   </si>
@@ -2598,6 +2598,81 @@
   </si>
   <si>
     <t>750_FR</t>
+  </si>
+  <si>
+    <t>NAMEwithZeros</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S2X</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>SF11</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>S62</t>
+  </si>
+  <si>
+    <t>S72</t>
+  </si>
+  <si>
+    <t>RCRT_OGPN</t>
+  </si>
+  <si>
+    <t>001 - 100 South</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>M809_AM-PG</t>
   </si>
 </sst>
 </file>
@@ -3517,11 +3592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:H215"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3532,9 +3607,10 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>850</v>
       </c>
@@ -3559,8 +3635,11 @@
       <c r="H1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>852</v>
       </c>
@@ -3585,8 +3664,11 @@
       <c r="H2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>853</v>
       </c>
@@ -3611,8 +3693,11 @@
       <c r="H3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>854</v>
       </c>
@@ -3637,8 +3722,11 @@
       <c r="H4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>855</v>
       </c>
@@ -3663,8 +3751,11 @@
       <c r="H5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>856</v>
       </c>
@@ -3689,20 +3780,22 @@
       <c r="H6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="str">
-        <f>"BE"&amp;TEXT(B7,"000")</f>
-        <v>BE630</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C7" t="s">
-        <v>706</v>
+      <c r="I6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>878</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -3714,25 +3807,28 @@
         <v>2050</v>
       </c>
       <c r="H7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="str">
-        <f>"DA"&amp;B8</f>
-        <v>DA460</v>
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="str">
+        <f>"BE"&amp;TEXT(B8,"000")</f>
+        <v>BE630</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="C8" t="s">
-        <v>573</v>
+        <v>706</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -3743,20 +3839,23 @@
       <c r="H8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="str">
         <f>"DA"&amp;B9</f>
-        <v>DA461</v>
+        <v>DA460</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -3770,20 +3869,23 @@
       <c r="H9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="str">
         <f>"DA"&amp;B10</f>
-        <v>DA462</v>
+        <v>DA461</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -3797,22 +3899,26 @@
       <c r="H10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>576</v>
+      <c r="I10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="str">
+        <f>"DA"&amp;B11</f>
+        <v>DA462</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>779</v>
       </c>
       <c r="C11" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -3823,74 +3929,82 @@
       <c r="H11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
-        <f>"DA"&amp;RIGHT(B12,3) &amp; LEFT(B12,1)</f>
-        <v>DA605F</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="I11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>576</v>
       </c>
       <c r="C12" t="s">
         <v>598</v>
       </c>
       <c r="D12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>2019</v>
+      </c>
+      <c r="G12">
+        <v>2050</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
+        <f>"DA"&amp;RIGHT(B13,3) &amp; LEFT(B13,1)</f>
+        <v>DA605F</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D13" t="s">
         <v>294</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>46</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>2028</v>
       </c>
-      <c r="G12">
-        <v>2050</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
-        <f>"DA"&amp;TEXT(B13,"000")</f>
-        <v>DA626</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C13" t="s">
-        <v>738</v>
-      </c>
-      <c r="D13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13">
-        <v>64</v>
-      </c>
-      <c r="F13">
-        <v>2019</v>
-      </c>
       <c r="G13">
         <v>2050</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>"DA"&amp;TEXT(B14,"000")</f>
-        <v>DA640</v>
+        <v>DA626</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E14">
         <v>64</v>
@@ -3904,47 +4018,56 @@
       <c r="H14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="I14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="str">
+        <f>"DA"&amp;TEXT(B15,"000")</f>
+        <v>DA640</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C15" t="s">
+        <v>740</v>
+      </c>
+      <c r="D15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>2019</v>
+      </c>
+      <c r="G15">
+        <v>2050</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>580</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>2050</v>
-      </c>
-      <c r="G15">
-        <v>2050</v>
-      </c>
-      <c r="H15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>652</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="G16">
         <v>2050</v>
@@ -3952,95 +4075,107 @@
       <c r="H16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>2030</v>
+        <v>2042</v>
       </c>
       <c r="G17">
         <v>2050</v>
       </c>
       <c r="H17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>2042</v>
+        <v>2030</v>
       </c>
       <c r="G18">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="G19">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="H19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="G20">
         <v>2050</v>
@@ -4048,23 +4183,26 @@
       <c r="H20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="G21">
         <v>2050</v>
@@ -4072,92 +4210,104 @@
       <c r="H21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F22">
         <v>2032</v>
       </c>
       <c r="G22">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23">
+        <v>2032</v>
+      </c>
+      <c r="G23">
         <v>2042</v>
       </c>
-      <c r="G23">
-        <v>2050</v>
-      </c>
       <c r="H23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="E24">
         <v>8</v>
       </c>
       <c r="F24">
-        <v>2030</v>
+        <v>2042</v>
       </c>
       <c r="G24">
         <v>2050</v>
       </c>
       <c r="H24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>2030</v>
@@ -4168,20 +4318,23 @@
       <c r="H25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <v>2030</v>
@@ -4192,20 +4345,23 @@
       <c r="H26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F27">
         <v>2030</v>
@@ -4216,17 +4372,20 @@
       <c r="H27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E28">
         <v>12</v>
@@ -4240,17 +4399,20 @@
       <c r="H28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E29">
         <v>12</v>
@@ -4264,17 +4426,20 @@
       <c r="H29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E30">
         <v>12</v>
@@ -4288,17 +4453,20 @@
       <c r="H30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E31">
         <v>12</v>
@@ -4312,20 +4480,23 @@
       <c r="H31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>2030</v>
@@ -4336,20 +4507,23 @@
       <c r="H32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F33">
         <v>2030</v>
@@ -4360,20 +4534,23 @@
       <c r="H33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F34">
         <v>2030</v>
@@ -4384,20 +4561,23 @@
       <c r="H34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E35">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>2030</v>
@@ -4408,17 +4588,20 @@
       <c r="H35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D36" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E36">
         <v>12</v>
@@ -4432,20 +4615,23 @@
       <c r="H36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <v>2030</v>
@@ -4456,20 +4642,23 @@
       <c r="H37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F38">
         <v>2030</v>
@@ -4480,17 +4669,20 @@
       <c r="H38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D39" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E39">
         <v>12</v>
@@ -4504,17 +4696,20 @@
       <c r="H39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E40">
         <v>12</v>
@@ -4528,17 +4723,20 @@
       <c r="H40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D41" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E41">
         <v>12</v>
@@ -4552,74 +4750,80 @@
       <c r="H41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" t="s">
+        <v>316</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>2030</v>
+      </c>
+      <c r="G42">
+        <v>2050</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
         <v>373</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>373</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>10</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>2032</v>
       </c>
-      <c r="G42">
-        <v>2050</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="str">
-        <f>"SL"&amp;TEXT(B43,"000")</f>
-        <v>SL002</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="C43" t="s">
-        <v>726</v>
-      </c>
-      <c r="D43" t="s">
-        <v>386</v>
-      </c>
-      <c r="E43">
+      <c r="G43">
+        <v>2050</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="str">
+        <f t="shared" ref="A44:A51" si="0">"SL"&amp;TEXT(B44,"000")</f>
+        <v>SL001</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C44" t="s">
+        <v>879</v>
+      </c>
+      <c r="D44" t="s">
+        <v>880</v>
+      </c>
+      <c r="E44">
         <v>26</v>
-      </c>
-      <c r="F43">
-        <v>2019</v>
-      </c>
-      <c r="G43">
-        <v>2050</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="str">
-        <f>"SL"&amp;TEXT(B44,"000")</f>
-        <v>SL002X</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C44" t="s">
-        <v>571</v>
-      </c>
-      <c r="D44" t="s">
-        <v>388</v>
-      </c>
-      <c r="E44">
-        <v>30</v>
       </c>
       <c r="F44">
         <v>2019</v>
@@ -4628,25 +4832,28 @@
         <v>2050</v>
       </c>
       <c r="H44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="str">
-        <f>"SL"&amp;TEXT(B45,"000")</f>
-        <v>SL003</v>
+        <f t="shared" si="0"/>
+        <v>SL002</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>751</v>
+        <v>799</v>
       </c>
       <c r="C45" t="s">
-        <v>572</v>
+        <v>726</v>
       </c>
       <c r="D45" t="s">
-        <v>389</v>
+        <v>858</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F45">
         <v>2019</v>
@@ -4657,23 +4864,26 @@
       <c r="H45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="str">
-        <f>"SL"&amp;TEXT(B46,"000")</f>
-        <v>SL004</v>
+        <f t="shared" si="0"/>
+        <v>SL002X</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>752</v>
+        <v>433</v>
       </c>
       <c r="C46" t="s">
-        <v>680</v>
+        <v>571</v>
       </c>
       <c r="D46" t="s">
-        <v>393</v>
+        <v>859</v>
       </c>
       <c r="E46">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F46">
         <v>2019</v>
@@ -4682,22 +4892,25 @@
         <v>2050</v>
       </c>
       <c r="H46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="str">
-        <f>"SL"&amp;TEXT(B47,"000")</f>
-        <v>SL006</v>
+        <f t="shared" si="0"/>
+        <v>SL003</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C47" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D47" t="s">
-        <v>398</v>
+        <v>860</v>
       </c>
       <c r="E47">
         <v>7</v>
@@ -4711,23 +4924,26 @@
       <c r="H47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="str">
-        <f>"SL"&amp;TEXT(B48,"000")</f>
-        <v>SL009</v>
+        <f t="shared" si="0"/>
+        <v>SL004</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="C48" t="s">
-        <v>727</v>
+        <v>680</v>
       </c>
       <c r="D48" t="s">
-        <v>400</v>
+        <v>861</v>
       </c>
       <c r="E48">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48">
         <v>2019</v>
@@ -4738,20 +4954,23 @@
       <c r="H48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="str">
-        <f>"SL"&amp;TEXT(B49,"000")</f>
-        <v>SL011</v>
+        <f t="shared" si="0"/>
+        <v>SL006</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C49" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="D49" t="s">
-        <v>384</v>
+        <v>862</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -4765,26 +4984,29 @@
       <c r="H49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B50,3) &amp; LEFT(B50,1)</f>
-        <v>SL011F</v>
+        <f t="shared" si="0"/>
+        <v>SL009</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>800</v>
       </c>
       <c r="C50" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="D50" t="s">
-        <v>403</v>
+        <v>863</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F50">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="G50">
         <v>2050</v>
@@ -4792,23 +5014,26 @@
       <c r="H50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="str">
-        <f>"SL"&amp;TEXT(B51,"000")</f>
-        <v>SL017</v>
+        <f t="shared" si="0"/>
+        <v>SL011</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>801</v>
+        <v>754</v>
       </c>
       <c r="C51" t="s">
-        <v>728</v>
+        <v>556</v>
       </c>
       <c r="D51" t="s">
-        <v>385</v>
+        <v>864</v>
       </c>
       <c r="E51">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="F51">
         <v>2019</v>
@@ -4819,26 +5044,29 @@
       <c r="H51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="str">
-        <f>"SL"&amp;TEXT(B52,"000")</f>
-        <v>SL021</v>
+        <f>"SL"&amp;RIGHT(B52,3) &amp; LEFT(B52,1)</f>
+        <v>SL011F</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>755</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>681</v>
+        <v>745</v>
       </c>
       <c r="D52" t="s">
-        <v>387</v>
+        <v>865</v>
       </c>
       <c r="E52">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F52">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="G52">
         <v>2050</v>
@@ -4846,26 +5074,29 @@
       <c r="H52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="str">
         <f>"SL"&amp;TEXT(B53,"000")</f>
-        <v>SL031</v>
+        <v>SL017</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="C53" t="s">
-        <v>833</v>
+        <v>728</v>
       </c>
       <c r="D53" t="s">
-        <v>585</v>
+        <v>866</v>
       </c>
       <c r="E53">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F53">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="G53">
         <v>2050</v>
@@ -4873,23 +5104,26 @@
       <c r="H53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="str">
         <f>"SL"&amp;TEXT(B54,"000")</f>
-        <v>SL033</v>
+        <v>SL021</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C54" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D54" t="s">
-        <v>390</v>
+        <v>867</v>
       </c>
       <c r="E54">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F54">
         <v>2019</v>
@@ -4900,49 +5134,56 @@
       <c r="H54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>406</v>
+      <c r="I54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="str">
+        <f>"SL"&amp;TEXT(B55,"000")</f>
+        <v>SL031</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="C55" t="s">
-        <v>729</v>
+        <v>833</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>868</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F55">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="G55">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="H55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="str">
         <f>"SL"&amp;TEXT(B56,"000")</f>
-        <v>SL035</v>
+        <v>SL033</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>406</v>
+        <v>756</v>
       </c>
       <c r="C56" t="s">
-        <v>729</v>
+        <v>682</v>
       </c>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>869</v>
       </c>
       <c r="E56">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F56">
         <v>2019</v>
@@ -4953,77 +5194,85 @@
       <c r="H56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="str">
-        <f>"SL"&amp;TEXT(B57,"000")</f>
-        <v>SL039</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>802</v>
+      <c r="I56" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C57" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D57" t="s">
-        <v>392</v>
+        <v>209</v>
       </c>
       <c r="E57">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>2019</v>
       </c>
       <c r="G57">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="H57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="str">
-        <f>"SL"&amp;TEXT(B58,"000")</f>
-        <v>SL041</v>
+        <f t="shared" ref="A58:A65" si="1">"SL"&amp;TEXT(B58,"000")</f>
+        <v>SL035</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>757</v>
+        <v>406</v>
       </c>
       <c r="C58" t="s">
-        <v>562</v>
+        <v>729</v>
       </c>
       <c r="D58" t="s">
-        <v>394</v>
+        <v>870</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F58">
         <v>2019</v>
       </c>
       <c r="G58">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="str">
-        <f>"SL"&amp;TEXT(B59,"000")</f>
-        <v>SL045</v>
+        <f t="shared" si="1"/>
+        <v>SL039</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>758</v>
+        <v>802</v>
       </c>
       <c r="C59" t="s">
-        <v>683</v>
+        <v>730</v>
       </c>
       <c r="D59" t="s">
-        <v>395</v>
+        <v>871</v>
       </c>
       <c r="E59">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F59">
         <v>2019</v>
@@ -5034,50 +5283,56 @@
       <c r="H59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="str">
-        <f>"SL"&amp;TEXT(B60,"000")</f>
-        <v>SL047</v>
+        <f t="shared" si="1"/>
+        <v>SL041</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C60" t="s">
-        <v>684</v>
+        <v>562</v>
       </c>
       <c r="D60" t="s">
-        <v>396</v>
+        <v>872</v>
       </c>
       <c r="E60">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F60">
         <v>2019</v>
       </c>
       <c r="G60">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="H60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="str">
-        <f>"SL"&amp;TEXT(B61,"000")</f>
-        <v>SL054</v>
+        <f t="shared" si="1"/>
+        <v>SL045</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C61" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D61" t="s">
-        <v>397</v>
+        <v>874</v>
       </c>
       <c r="E61">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F61">
         <v>2019</v>
@@ -5088,23 +5343,26 @@
       <c r="H61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="str">
-        <f>"SL"&amp;TEXT(B62,"000")</f>
-        <v>SL062</v>
+        <f t="shared" si="1"/>
+        <v>SL047</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C62" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D62" t="s">
-        <v>399</v>
+        <v>873</v>
       </c>
       <c r="E62">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F62">
         <v>2019</v>
@@ -5115,20 +5373,23 @@
       <c r="H62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="str">
-        <f>"SL"&amp;TEXT(B63,"000")</f>
-        <v>SL072</v>
+        <f t="shared" si="1"/>
+        <v>SL054</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C63" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D63" t="s">
-        <v>401</v>
+        <v>875</v>
       </c>
       <c r="E63">
         <v>28</v>
@@ -5142,23 +5403,26 @@
       <c r="H63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B64,3) &amp; LEFT(B64,1)</f>
-        <v>SL094F</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>SL062</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="C64" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
       <c r="D64" t="s">
-        <v>372</v>
+        <v>876</v>
       </c>
       <c r="E64">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F64">
         <v>2019</v>
@@ -5169,23 +5433,26 @@
       <c r="H64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="str">
-        <f>"SL"&amp;TEXT(B65,"000")</f>
-        <v>SL200</v>
+        <f t="shared" si="1"/>
+        <v>SL072</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C65" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D65" t="s">
-        <v>321</v>
+        <v>877</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F65">
         <v>2019</v>
@@ -5196,23 +5463,26 @@
       <c r="H65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="str">
-        <f>"SL"&amp;TEXT(B66,"000")</f>
-        <v>SL201</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>803</v>
+        <f>"SL"&amp;RIGHT(B66,3) &amp; LEFT(B66,1)</f>
+        <v>SL094F</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="D66" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="E66">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F66">
         <v>2019</v>
@@ -5223,26 +5493,29 @@
       <c r="H66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B67,3) &amp; LEFT(B67,1)</f>
-        <v>SL202F</v>
+        <f>"SL"&amp;TEXT(B67,"000")</f>
+        <v>SL200</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>153</v>
+        <v>763</v>
       </c>
       <c r="C67" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="D67" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F67">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="G67">
         <v>2050</v>
@@ -5250,23 +5523,26 @@
       <c r="H67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="str">
         <f>"SL"&amp;TEXT(B68,"000")</f>
-        <v>SL205</v>
+        <v>SL201</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C68" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E68">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F68">
         <v>2019</v>
@@ -5277,50 +5553,56 @@
       <c r="H68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="str">
-        <f>"SL"&amp;TEXT(B69,"000")</f>
-        <v>SL209</v>
+        <f>"SL"&amp;RIGHT(B69,3) &amp; LEFT(B69,1)</f>
+        <v>SL202F</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>805</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="D69" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="E69">
+        <v>50</v>
+      </c>
+      <c r="F69">
+        <v>2023</v>
+      </c>
+      <c r="G69">
+        <v>2050</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="str">
+        <f t="shared" ref="A70:A78" si="2">"SL"&amp;TEXT(B70,"000")</f>
+        <v>SL205</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C70" t="s">
+        <v>732</v>
+      </c>
+      <c r="D70" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70">
         <v>28</v>
-      </c>
-      <c r="F69">
-        <v>2019</v>
-      </c>
-      <c r="G69">
-        <v>2050</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="str">
-        <f>"SL"&amp;TEXT(B70,"000")</f>
-        <v>SL213</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C70" t="s">
-        <v>689</v>
-      </c>
-      <c r="D70" t="s">
-        <v>325</v>
-      </c>
-      <c r="E70">
-        <v>29</v>
       </c>
       <c r="F70">
         <v>2019</v>
@@ -5331,23 +5613,26 @@
       <c r="H70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="str">
-        <f>"SL"&amp;TEXT(B71,"000")</f>
-        <v>SL217</v>
+        <f t="shared" si="2"/>
+        <v>SL209</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C71" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D71" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E71">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F71">
         <v>2019</v>
@@ -5358,23 +5643,26 @@
       <c r="H71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="str">
-        <f>"SL"&amp;TEXT(B72,"000")</f>
-        <v>SL218</v>
+        <f t="shared" si="2"/>
+        <v>SL213</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
       <c r="C72" t="s">
-        <v>735</v>
+        <v>689</v>
       </c>
       <c r="D72" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E72">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F72">
         <v>2019</v>
@@ -5385,23 +5673,26 @@
       <c r="H72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="str">
-        <f>"SL"&amp;TEXT(B73,"000")</f>
-        <v>SL220</v>
+        <f t="shared" si="2"/>
+        <v>SL217</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C73" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D73" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E73">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F73">
         <v>2019</v>
@@ -5412,23 +5703,26 @@
       <c r="H73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="str">
-        <f>"SL"&amp;TEXT(B74,"000")</f>
-        <v>SL223</v>
+        <f t="shared" si="2"/>
+        <v>SL218</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="C74" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="D74" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E74">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F74">
         <v>2019</v>
@@ -5439,23 +5733,26 @@
       <c r="H74">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="str">
-        <f>"SL"&amp;TEXT(B75,"000")</f>
-        <v>SL227</v>
+        <f t="shared" si="2"/>
+        <v>SL220</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C75" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D75" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E75">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F75">
         <v>2019</v>
@@ -5466,23 +5763,26 @@
       <c r="H75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="str">
-        <f>"SL"&amp;TEXT(B76,"000")</f>
-        <v>SL232</v>
+        <f t="shared" si="2"/>
+        <v>SL223</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C76" t="s">
-        <v>557</v>
+        <v>690</v>
       </c>
       <c r="D76" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E76">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F76">
         <v>2019</v>
@@ -5493,131 +5793,146 @@
       <c r="H76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B77,3) &amp; LEFT(B77,1)</f>
+        <f t="shared" si="2"/>
+        <v>SL227</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C77" t="s">
+        <v>737</v>
+      </c>
+      <c r="D77" t="s">
+        <v>330</v>
+      </c>
+      <c r="E77">
+        <v>28</v>
+      </c>
+      <c r="F77">
+        <v>2019</v>
+      </c>
+      <c r="G77">
+        <v>2050</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>SL232</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C78" t="s">
+        <v>557</v>
+      </c>
+      <c r="D78" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>2019</v>
+      </c>
+      <c r="G78">
+        <v>2050</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="str">
+        <f>"SL"&amp;RIGHT(B79,3) &amp; LEFT(B79,1)</f>
         <v>SL232F</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>746</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D79" t="s">
         <v>358</v>
       </c>
-      <c r="E77">
+      <c r="E79">
         <v>50</v>
       </c>
-      <c r="F77">
+      <c r="F79">
         <v>2023</v>
       </c>
-      <c r="G77">
-        <v>2050</v>
-      </c>
-      <c r="H77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="str">
-        <f>"SL"&amp;TEXT(B78,"000")</f>
+      <c r="G79">
+        <v>2050</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="str">
+        <f t="shared" ref="A80:A86" si="3">"SL"&amp;TEXT(B80,"000")</f>
         <v>SL236</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>834</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>332</v>
       </c>
-      <c r="E78">
+      <c r="E80">
         <v>23</v>
       </c>
-      <c r="F78">
+      <c r="F80">
         <v>2028</v>
       </c>
-      <c r="G78">
-        <v>2050</v>
-      </c>
-      <c r="H78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="str">
-        <f>"SL"&amp;TEXT(B79,"000")</f>
+      <c r="G80">
+        <v>2050</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>SL240</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>691</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>333</v>
       </c>
-      <c r="E79">
+      <c r="E81">
         <v>28</v>
-      </c>
-      <c r="F79">
-        <v>2019</v>
-      </c>
-      <c r="G79">
-        <v>2050</v>
-      </c>
-      <c r="H79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="str">
-        <f>"SL"&amp;TEXT(B80,"000")</f>
-        <v>SL248</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C80" t="s">
-        <v>692</v>
-      </c>
-      <c r="D80" t="s">
-        <v>334</v>
-      </c>
-      <c r="E80">
-        <v>41</v>
-      </c>
-      <c r="F80">
-        <v>2019</v>
-      </c>
-      <c r="G80">
-        <v>2050</v>
-      </c>
-      <c r="H80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="str">
-        <f>"SL"&amp;TEXT(B81,"000")</f>
-        <v>SL307X</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C81" t="s">
-        <v>558</v>
-      </c>
-      <c r="D81" t="s">
-        <v>335</v>
-      </c>
-      <c r="E81">
-        <v>30</v>
       </c>
       <c r="F81">
         <v>2019</v>
@@ -5628,23 +5943,26 @@
       <c r="H81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="str">
-        <f>"SL"&amp;TEXT(B82,"000")</f>
-        <v>SL313X</v>
+        <f t="shared" si="3"/>
+        <v>SL248</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C82" t="s">
-        <v>559</v>
+        <v>692</v>
       </c>
       <c r="D82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F82">
         <v>2019</v>
@@ -5655,20 +5973,23 @@
       <c r="H82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="str">
-        <f>"SL"&amp;TEXT(B83,"000")</f>
-        <v>SL320X</v>
+        <f t="shared" si="3"/>
+        <v>SL307X</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C83" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E83">
         <v>30</v>
@@ -5682,20 +6003,23 @@
       <c r="H83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="str">
-        <f>"SL"&amp;TEXT(B84,"000")</f>
-        <v>SL354X</v>
+        <f t="shared" si="3"/>
+        <v>SL313X</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C84" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E84">
         <v>30</v>
@@ -5709,23 +6033,26 @@
       <c r="H84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B85,3) &amp; LEFT(B85,1)</f>
-        <v>SL453F</v>
+        <f t="shared" si="3"/>
+        <v>SL320X</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>771</v>
       </c>
       <c r="C85" t="s">
-        <v>719</v>
+        <v>560</v>
       </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="E85">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F85">
         <v>2019</v>
@@ -5736,23 +6063,26 @@
       <c r="H85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="str">
-        <f>"SL"&amp;TEXT(B86,"000")</f>
-        <v>SL455</v>
+        <f t="shared" si="3"/>
+        <v>SL354X</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C86" t="s">
-        <v>693</v>
+        <v>561</v>
       </c>
       <c r="D86" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E86">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F86">
         <v>2019</v>
@@ -5763,23 +6093,26 @@
       <c r="H86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="str">
-        <f>"SL"&amp;TEXT(B87,"000")</f>
-        <v>SL456</v>
+        <f>"SL"&amp;RIGHT(B87,3) &amp; LEFT(B87,1)</f>
+        <v>SL453F</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>776</v>
+        <v>159</v>
       </c>
       <c r="C87" t="s">
-        <v>565</v>
+        <v>719</v>
       </c>
       <c r="D87" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F87">
         <v>2019</v>
@@ -5788,25 +6121,28 @@
         <v>2050</v>
       </c>
       <c r="H87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I87" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="str">
         <f>"SL"&amp;TEXT(B88,"000")</f>
-        <v>SL463</v>
+        <v>SL455</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>810</v>
+        <v>775</v>
       </c>
       <c r="C88" t="s">
-        <v>566</v>
+        <v>693</v>
       </c>
       <c r="D88" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E88">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F88">
         <v>2019</v>
@@ -5817,23 +6153,26 @@
       <c r="H88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="str">
         <f>"SL"&amp;TEXT(B89,"000")</f>
-        <v>SL470</v>
+        <v>SL456</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C89" t="s">
-        <v>694</v>
+        <v>565</v>
       </c>
       <c r="D89" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E89">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F89">
         <v>2019</v>
@@ -5842,25 +6181,28 @@
         <v>2050</v>
       </c>
       <c r="H89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I89" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="str">
         <f>"SL"&amp;TEXT(B90,"000")</f>
-        <v>SL471</v>
+        <v>SL463</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>781</v>
+        <v>810</v>
       </c>
       <c r="C90" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D90" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F90">
         <v>2019</v>
@@ -5871,50 +6213,56 @@
       <c r="H90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B91,3) &amp; LEFT(B91,1)</f>
-        <v>SL504F</v>
+        <f>"SL"&amp;TEXT(B91,"000")</f>
+        <v>SL470</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="C91" t="s">
-        <v>594</v>
+        <v>694</v>
       </c>
       <c r="D91" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E91">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F91">
         <v>2019</v>
       </c>
       <c r="G91">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="str">
         <f>"SL"&amp;TEXT(B92,"000")</f>
-        <v>SL509</v>
+        <v>SL471</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C92" t="s">
-        <v>695</v>
+        <v>567</v>
       </c>
       <c r="D92" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E92">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F92">
         <v>2019</v>
@@ -5925,47 +6273,53 @@
       <c r="H92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="str">
-        <f>"SL"&amp;TEXT(B93,"000")</f>
-        <v>SL513</v>
+        <f>"SL"&amp;RIGHT(B93,3) &amp; LEFT(B93,1)</f>
+        <v>SL504F</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="C93" t="s">
-        <v>696</v>
+        <v>594</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E93">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F93">
         <v>2019</v>
       </c>
       <c r="G93">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="H93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B94,3) &amp; LEFT(B94,1)</f>
-        <v>SL514F</v>
+        <f>"SL"&amp;TEXT(B94,"000")</f>
+        <v>SL509</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>162</v>
+        <v>782</v>
       </c>
       <c r="C94" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="D94" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="E94">
         <v>64</v>
@@ -5979,23 +6333,26 @@
       <c r="H94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B95,3) &amp; LEFT(B95,1)</f>
-        <v>SL518F</v>
+        <f>"SL"&amp;TEXT(B95,"000")</f>
+        <v>SL513</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C95" t="s">
-        <v>595</v>
+        <v>696</v>
       </c>
       <c r="D95" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E95">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F95">
         <v>2019</v>
@@ -6006,23 +6363,26 @@
       <c r="H95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="str">
-        <f>"SL"&amp;TEXT(B96,"000")</f>
-        <v>SL519</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>409</v>
+        <f>"SL"&amp;RIGHT(B96,3) &amp; LEFT(B96,1)</f>
+        <v>SL514F</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C96" t="s">
-        <v>593</v>
+        <v>720</v>
       </c>
       <c r="D96" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F96">
         <v>2019</v>
@@ -6033,20 +6393,23 @@
       <c r="H96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="str">
         <f>"SL"&amp;RIGHT(B97,3) &amp; LEFT(B97,1)</f>
-        <v>SL522F</v>
+        <v>SL518F</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>824</v>
+        <v>796</v>
       </c>
       <c r="C97" t="s">
-        <v>838</v>
+        <v>595</v>
       </c>
       <c r="D97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E97">
         <v>14</v>
@@ -6060,20 +6423,23 @@
       <c r="H97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="str">
         <f>"SL"&amp;TEXT(B98,"000")</f>
-        <v>SL525</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>784</v>
+        <v>SL519</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="C98" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="D98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E98">
         <v>7</v>
@@ -6087,26 +6453,29 @@
       <c r="H98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="str">
         <f>"SL"&amp;RIGHT(B99,3) &amp; LEFT(B99,1)</f>
-        <v>SL525F</v>
+        <v>SL522F</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>165</v>
+        <v>824</v>
       </c>
       <c r="C99" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="D99" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E99">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F99">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="G99">
         <v>2050</v>
@@ -6114,23 +6483,26 @@
       <c r="H99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="str">
         <f>"SL"&amp;TEXT(B100,"000")</f>
-        <v>SL526</v>
+        <v>SL525</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C100" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D100" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E100">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F100">
         <v>2019</v>
@@ -6141,26 +6513,29 @@
       <c r="H100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="str">
         <f>"SL"&amp;RIGHT(B101,3) &amp; LEFT(B101,1)</f>
-        <v>SL534F</v>
+        <v>SL525F</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>797</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>597</v>
+        <v>747</v>
       </c>
       <c r="D101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="F101">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="G101">
         <v>2050</v>
@@ -6168,20 +6543,23 @@
       <c r="H101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B102,3) &amp; LEFT(B102,1)</f>
-        <v>SL546F</v>
+        <f>"SL"&amp;TEXT(B102,"000")</f>
+        <v>SL526</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="C102" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="D102" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E102">
         <v>14</v>
@@ -6195,20 +6573,23 @@
       <c r="H102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="str">
         <f>"SL"&amp;RIGHT(B103,3) &amp; LEFT(B103,1)</f>
-        <v>SL547F</v>
+        <v>SL534F</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="C103" t="s">
-        <v>837</v>
+        <v>597</v>
       </c>
       <c r="D103" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E103">
         <v>7</v>
@@ -6222,23 +6603,26 @@
       <c r="H103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="str">
-        <f>"SL"&amp;TEXT(B104,"000")</f>
-        <v>SL551</v>
+        <f>"SL"&amp;RIGHT(B104,3) &amp; LEFT(B104,1)</f>
+        <v>SL546F</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="C104" t="s">
-        <v>697</v>
+        <v>596</v>
       </c>
       <c r="D104" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E104">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F104">
         <v>2019</v>
@@ -6249,23 +6633,26 @@
       <c r="H104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="str">
         <f>"SL"&amp;RIGHT(B105,3) &amp; LEFT(B105,1)</f>
-        <v>SL556F</v>
+        <v>SL547F</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>168</v>
+        <v>825</v>
       </c>
       <c r="C105" t="s">
-        <v>721</v>
+        <v>837</v>
       </c>
       <c r="D105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E105">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F105">
         <v>2019</v>
@@ -6276,23 +6663,26 @@
       <c r="H105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="str">
-        <f>"SL"&amp;RIGHT(B106,3) &amp; LEFT(B106,1)</f>
-        <v>SL570F</v>
+        <f>"SL"&amp;TEXT(B106,"000")</f>
+        <v>SL551</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>171</v>
+        <v>786</v>
       </c>
       <c r="C106" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="D106" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E106">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F106">
         <v>2019</v>
@@ -6303,23 +6693,26 @@
       <c r="H106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="str">
         <f>"SL"&amp;RIGHT(B107,3) &amp; LEFT(B107,1)</f>
-        <v>SL578F</v>
+        <v>SL556F</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D107" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E107">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F107">
         <v>2019</v>
@@ -6330,23 +6723,26 @@
       <c r="H107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="str">
         <f>"SL"&amp;RIGHT(B108,3) &amp; LEFT(B108,1)</f>
-        <v>SL590F</v>
+        <v>SL570F</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C108" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D108" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E108">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F108">
         <v>2019</v>
@@ -6357,107 +6753,119 @@
       <c r="H108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="str">
-        <f>"SL"&amp;TEXT(B109,"000")</f>
+        <f>"SL"&amp;RIGHT(B109,3) &amp; LEFT(B109,1)</f>
+        <v>SL578F</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" t="s">
+        <v>723</v>
+      </c>
+      <c r="D109" t="s">
+        <v>370</v>
+      </c>
+      <c r="E109">
+        <v>38</v>
+      </c>
+      <c r="F109">
+        <v>2019</v>
+      </c>
+      <c r="G109">
+        <v>2050</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="str">
+        <f>"SL"&amp;RIGHT(B110,3) &amp; LEFT(B110,1)</f>
+        <v>SL590F</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" t="s">
+        <v>724</v>
+      </c>
+      <c r="D110" t="s">
+        <v>371</v>
+      </c>
+      <c r="E110">
+        <v>54</v>
+      </c>
+      <c r="F110">
+        <v>2019</v>
+      </c>
+      <c r="G110">
+        <v>2050</v>
+      </c>
+      <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="str">
+        <f>"SL"&amp;TEXT(B111,"000")</f>
         <v>SL672X</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>841</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>354</v>
       </c>
-      <c r="E109">
+      <c r="E111">
         <v>23</v>
       </c>
-      <c r="F109">
+      <c r="F111">
         <v>2028</v>
       </c>
-      <c r="G109">
-        <v>2050</v>
-      </c>
-      <c r="H109">
+      <c r="G111">
+        <v>2050</v>
+      </c>
+      <c r="H111">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="str">
-        <f>"SL"&amp;TEXT(B110,"000")</f>
+      <c r="I111" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="str">
+        <f>"SL"&amp;TEXT(B112,"000")</f>
         <v>SL673X</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>842</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>355</v>
       </c>
-      <c r="E110">
+      <c r="E112">
         <v>23</v>
       </c>
-      <c r="F110">
+      <c r="F112">
         <v>2028</v>
-      </c>
-      <c r="G110">
-        <v>2050</v>
-      </c>
-      <c r="H110">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="str">
-        <f>"SU"&amp;TEXT(B111,"000")</f>
-        <v>SU001</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C111" t="s">
-        <v>679</v>
-      </c>
-      <c r="D111" t="s">
-        <v>402</v>
-      </c>
-      <c r="E111">
-        <v>50</v>
-      </c>
-      <c r="F111">
-        <v>2023</v>
-      </c>
-      <c r="G111">
-        <v>2050</v>
-      </c>
-      <c r="H111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="str">
-        <f>"SU"&amp;TEXT(B112,"000")</f>
-        <v>SU902</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C112" t="s">
-        <v>744</v>
-      </c>
-      <c r="D112" t="s">
-        <v>356</v>
-      </c>
-      <c r="E112">
-        <v>5</v>
-      </c>
-      <c r="F112">
-        <v>2019</v>
       </c>
       <c r="G112">
         <v>2050</v>
@@ -6465,50 +6873,56 @@
       <c r="H112">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="str">
-        <f>"TO"&amp;TEXT(B113,"000")</f>
-        <v>TO451X</v>
+      <c r="I112" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="str">
+        <f>"SU"&amp;TEXT(B113,"000")</f>
+        <v>SU001</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="C113" t="s">
-        <v>563</v>
+        <v>679</v>
       </c>
       <c r="D113" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="E113">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F113">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="G113">
         <v>2050</v>
       </c>
       <c r="H113">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I113" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="str">
-        <f>"TO"&amp;TEXT(B114,"000")</f>
-        <v>TO454</v>
+        <f>"SU"&amp;TEXT(B114,"000")</f>
+        <v>SU902</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="C114" t="s">
-        <v>564</v>
+        <v>744</v>
       </c>
       <c r="D114" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="E114">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F114">
         <v>2019</v>
@@ -6517,25 +6931,28 @@
         <v>2050</v>
       </c>
       <c r="H114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="str">
-        <f>"UT"&amp;TEXT(B115,"000")</f>
-        <v>UT805</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>415</v>
+        <v>6</v>
+      </c>
+      <c r="I114" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="str">
+        <f>"TO"&amp;TEXT(B115,"000")</f>
+        <v>TO451X</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="C115" t="s">
-        <v>707</v>
+        <v>563</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="E115">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F115">
         <v>2019</v>
@@ -6544,25 +6961,28 @@
         <v>2050</v>
       </c>
       <c r="H115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="str">
-        <f>"UT"&amp;TEXT(B116,"000")</f>
-        <v>UT806</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>794</v>
+        <v>6</v>
+      </c>
+      <c r="I115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="str">
+        <f>"TO"&amp;TEXT(B116,"000")</f>
+        <v>TO454</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="C116" t="s">
-        <v>708</v>
+        <v>564</v>
       </c>
       <c r="D116" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="E116">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F116">
         <v>2019</v>
@@ -6573,23 +6993,26 @@
       <c r="H116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="str">
         <f>"UT"&amp;TEXT(B117,"000")</f>
-        <v>UT807</v>
+        <v>UT805</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C117" t="s">
-        <v>742</v>
+        <v>707</v>
       </c>
       <c r="D117" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E117">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F117">
         <v>2019</v>
@@ -6600,53 +7023,59 @@
       <c r="H117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="str">
         <f>"UT"&amp;TEXT(B118,"000")</f>
-        <v>UT809</v>
+        <v>UT806</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>417</v>
+        <v>794</v>
       </c>
       <c r="C118" t="s">
-        <v>434</v>
+        <v>708</v>
       </c>
       <c r="D118" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F118">
         <v>2019</v>
       </c>
       <c r="G118">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="H118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="str">
-        <f>"UT"&amp;MID(B119,2,3)&amp;"F"</f>
-        <v>UT809F</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>832</v>
+        <f>"UT"&amp;TEXT(B119,"000")</f>
+        <v>UT807</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="C119" t="s">
-        <v>840</v>
+        <v>742</v>
       </c>
       <c r="D119" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E119">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F119">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="G119">
         <v>2050</v>
@@ -6654,186 +7083,209 @@
       <c r="H119">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="str">
         <f>"UT"&amp;TEXT(B120,"000")</f>
-        <v>UT821</v>
+        <v>UT809</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C120" t="s">
-        <v>709</v>
+        <v>434</v>
       </c>
       <c r="D120" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E120">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F120">
         <v>2019</v>
       </c>
       <c r="G120">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="H120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="str">
-        <f>"UT"&amp;TEXT(B121,"000")&amp;".1"</f>
-        <v>UT821.1</v>
+        <f>"UT"&amp;TEXT(B121,"000")</f>
+        <v>UT809</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C121" t="s">
-        <v>710</v>
+        <v>434</v>
       </c>
       <c r="D121" t="s">
-        <v>255</v>
+        <v>881</v>
       </c>
       <c r="E121">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F121">
+        <v>2019</v>
+      </c>
+      <c r="G121">
+        <v>2024</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="str">
+        <f>"UT"&amp;MID(B122,2,3)&amp;"F"</f>
+        <v>UT809F</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C122" t="s">
+        <v>840</v>
+      </c>
+      <c r="D122" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+      <c r="F122">
         <v>2028</v>
       </c>
-      <c r="G121">
-        <v>2050</v>
-      </c>
-      <c r="H121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="str">
-        <f>"UT"&amp;TEXT(B122,"000")</f>
-        <v>UT822</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C122" t="s">
-        <v>711</v>
-      </c>
-      <c r="D122" t="s">
-        <v>257</v>
-      </c>
-      <c r="E122">
-        <v>52</v>
-      </c>
-      <c r="F122">
-        <v>2019</v>
-      </c>
       <c r="G122">
         <v>2050</v>
       </c>
       <c r="H122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="str">
         <f>"UT"&amp;TEXT(B123,"000")</f>
-        <v>UT823</v>
+        <v>UT821</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>830</v>
+        <v>418</v>
       </c>
       <c r="C123" t="s">
-        <v>843</v>
+        <v>709</v>
       </c>
       <c r="D123" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E123">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F123">
+        <v>2019</v>
+      </c>
+      <c r="G123">
+        <v>2050</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="str">
+        <f>"UT"&amp;TEXT(B124,"000")&amp;".1"</f>
+        <v>UT821.1</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C124" t="s">
+        <v>710</v>
+      </c>
+      <c r="D124" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124">
+        <v>20</v>
+      </c>
+      <c r="F124">
         <v>2028</v>
       </c>
-      <c r="G123">
-        <v>2050</v>
-      </c>
-      <c r="H123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D124" t="s">
-        <v>223</v>
-      </c>
-      <c r="E124">
-        <v>50</v>
-      </c>
-      <c r="F124">
+      <c r="G124">
+        <v>2050</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="str">
+        <f>"UT"&amp;TEXT(B125,"000")</f>
+        <v>UT822</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C125" t="s">
+        <v>711</v>
+      </c>
+      <c r="D125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E125">
+        <v>52</v>
+      </c>
+      <c r="F125">
         <v>2019</v>
       </c>
-      <c r="G124">
-        <v>2050</v>
-      </c>
-      <c r="H124">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="C125" t="s">
-        <v>839</v>
-      </c>
-      <c r="D125" t="s">
-        <v>259</v>
-      </c>
-      <c r="E125">
-        <v>32</v>
-      </c>
-      <c r="F125">
-        <v>2028</v>
-      </c>
       <c r="G125">
         <v>2050</v>
       </c>
       <c r="H125">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="str">
         <f>"UT"&amp;TEXT(B126,"000")</f>
-        <v>UT831</v>
+        <v>UT823</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>420</v>
+        <v>830</v>
       </c>
       <c r="C126" t="s">
-        <v>712</v>
+        <v>843</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E126">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F126">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="G126">
         <v>2050</v>
@@ -6841,23 +7293,25 @@
       <c r="H126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="str">
-        <f>"UT"&amp;TEXT(B127,"000")</f>
-        <v>UT833</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C127" t="s">
-        <v>743</v>
+      <c r="I126" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="E127">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F127">
         <v>2019</v>
@@ -6866,52 +7320,57 @@
         <v>2050</v>
       </c>
       <c r="H127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="str">
-        <f>"UT"&amp;TEXT(B128,"000")</f>
-        <v>UT834</v>
+        <v>9</v>
+      </c>
+      <c r="I127" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>589</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>422</v>
+        <v>831</v>
       </c>
       <c r="C128" t="s">
-        <v>713</v>
+        <v>839</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E128">
+        <v>32</v>
+      </c>
+      <c r="F128">
+        <v>2028</v>
+      </c>
+      <c r="G128">
+        <v>2050</v>
+      </c>
+      <c r="H128">
+        <v>9</v>
+      </c>
+      <c r="I128" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="str">
+        <f t="shared" ref="A129:A136" si="4">"UT"&amp;TEXT(B129,"000")</f>
+        <v>UT831</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C129" t="s">
+        <v>712</v>
+      </c>
+      <c r="D129" t="s">
+        <v>260</v>
+      </c>
+      <c r="E129">
         <v>52</v>
-      </c>
-      <c r="F128">
-        <v>2019</v>
-      </c>
-      <c r="G128">
-        <v>2050</v>
-      </c>
-      <c r="H128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="str">
-        <f>"UT"&amp;TEXT(B129,"000")</f>
-        <v>UT841</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C129" t="s">
-        <v>435</v>
-      </c>
-      <c r="D129" t="s">
-        <v>263</v>
-      </c>
-      <c r="E129">
-        <v>36</v>
       </c>
       <c r="F129">
         <v>2019</v>
@@ -6922,23 +7381,26 @@
       <c r="H129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="str">
-        <f>"UT"&amp;TEXT(B130,"000")</f>
-        <v>UT850</v>
+        <f t="shared" si="4"/>
+        <v>UT833</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C130" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="D130" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E130">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F130">
         <v>2019</v>
@@ -6949,20 +7411,23 @@
       <c r="H130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="str">
-        <f>"UT"&amp;TEXT(B131,"000")</f>
-        <v>UT862</v>
+        <f t="shared" si="4"/>
+        <v>UT834</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C131" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D131" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E131">
         <v>52</v>
@@ -6976,23 +7441,26 @@
       <c r="H131">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="str">
-        <f>"UT"&amp;TEXT(B132,"000")</f>
-        <v>UT864</v>
+        <f t="shared" si="4"/>
+        <v>UT841</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C132" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D132" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E132">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F132">
         <v>2019</v>
@@ -7003,23 +7471,26 @@
       <c r="H132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="str">
-        <f>"UT"&amp;TEXT(B133,"000")</f>
-        <v>UT871</v>
+        <f t="shared" si="4"/>
+        <v>UT850</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C133" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E133">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F133">
         <v>2019</v>
@@ -7030,23 +7501,26 @@
       <c r="H133">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="str">
-        <f>"WE"&amp;TEXT(B134,"000")</f>
-        <v>WE472X</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>811</v>
+      <c r="I133" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UT862</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="C134" t="s">
-        <v>591</v>
+        <v>715</v>
       </c>
       <c r="D134" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="E134">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F134">
         <v>2019</v>
@@ -7055,25 +7529,28 @@
         <v>2050</v>
       </c>
       <c r="H134">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="str">
-        <f>"WE"&amp;TEXT(B135,"000")</f>
-        <v>WE473X</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>812</v>
+        <v>4</v>
+      </c>
+      <c r="I134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UT864</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="C135" t="s">
-        <v>592</v>
+        <v>436</v>
       </c>
       <c r="D135" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F135">
         <v>2019</v>
@@ -7082,28 +7559,31 @@
         <v>2050</v>
       </c>
       <c r="H135">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="str">
-        <f>"WE"&amp;TEXT(B136,"000")</f>
-        <v>WE600</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>813</v>
+        <v>4</v>
+      </c>
+      <c r="I135" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>UT871</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="C136" t="s">
-        <v>845</v>
+        <v>716</v>
       </c>
       <c r="D136" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E136">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F136">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="G136">
         <v>2050</v>
@@ -7111,23 +7591,26 @@
       <c r="H136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="str">
-        <f>"WE"&amp;TEXT(B137,"000")</f>
-        <v>WE601</v>
+        <f t="shared" ref="A137:A151" si="5">"WE"&amp;TEXT(B137,"000")</f>
+        <v>WE472X</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>428</v>
+        <v>811</v>
       </c>
       <c r="C137" t="s">
-        <v>698</v>
+        <v>591</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="E137">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F137">
         <v>2019</v>
@@ -7136,25 +7619,28 @@
         <v>2050</v>
       </c>
       <c r="H137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I137" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="str">
-        <f>"WE"&amp;TEXT(B138,"000")</f>
-        <v>WE603</v>
+        <f t="shared" si="5"/>
+        <v>WE473X</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>429</v>
+        <v>812</v>
       </c>
       <c r="C138" t="s">
-        <v>699</v>
+        <v>592</v>
       </c>
       <c r="D138" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="E138">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F138">
         <v>2019</v>
@@ -7163,28 +7649,31 @@
         <v>2050</v>
       </c>
       <c r="H138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I138" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="str">
-        <f>"WE"&amp;TEXT(B139,"000")</f>
-        <v>WE604</v>
+        <f t="shared" si="5"/>
+        <v>WE600</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>430</v>
+        <v>813</v>
       </c>
       <c r="C139" t="s">
-        <v>700</v>
+        <v>845</v>
       </c>
       <c r="D139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E139">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F139">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="G139">
         <v>2050</v>
@@ -7192,23 +7681,26 @@
       <c r="H139">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="str">
-        <f>"WE"&amp;TEXT(B140,"000")</f>
-        <v>WE606</v>
+        <f t="shared" si="5"/>
+        <v>WE601</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C140" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E140">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F140">
         <v>2019</v>
@@ -7219,26 +7711,29 @@
       <c r="H140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="str">
-        <f>"WE"&amp;TEXT(B141,"000")</f>
-        <v>WE607</v>
+        <f t="shared" si="5"/>
+        <v>WE603</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>814</v>
+        <v>429</v>
       </c>
       <c r="C141" t="s">
-        <v>844</v>
+        <v>699</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E141">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F141">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="G141">
         <v>2050</v>
@@ -7246,23 +7741,26 @@
       <c r="H141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="str">
-        <f>"WE"&amp;TEXT(B142,"000")</f>
-        <v>WE608</v>
+        <f t="shared" si="5"/>
+        <v>WE604</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C142" t="s">
-        <v>437</v>
+        <v>700</v>
       </c>
       <c r="D142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E142">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F142">
         <v>2019</v>
@@ -7273,77 +7771,86 @@
       <c r="H142">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="str">
-        <f>"WE"&amp;TEXT(B143,"000")</f>
-        <v>WE609</v>
+        <f t="shared" si="5"/>
+        <v>WE606</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="C143" t="s">
-        <v>846</v>
+        <v>701</v>
       </c>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E143">
+        <v>39</v>
+      </c>
+      <c r="F143">
+        <v>2019</v>
+      </c>
+      <c r="G143">
+        <v>2050</v>
+      </c>
+      <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>WE607</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C144" t="s">
+        <v>844</v>
+      </c>
+      <c r="D144" t="s">
+        <v>277</v>
+      </c>
+      <c r="E144">
         <v>23</v>
       </c>
-      <c r="F143">
+      <c r="F144">
         <v>2028</v>
       </c>
-      <c r="G143">
-        <v>2050</v>
-      </c>
-      <c r="H143">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="str">
-        <f>"WE"&amp;TEXT(B144,"000")</f>
-        <v>WE612</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="C144" t="s">
-        <v>702</v>
-      </c>
-      <c r="D144" t="s">
-        <v>280</v>
-      </c>
-      <c r="E144">
-        <v>44</v>
-      </c>
-      <c r="F144">
-        <v>2019</v>
-      </c>
       <c r="G144">
         <v>2050</v>
       </c>
       <c r="H144">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="str">
-        <f>"WE"&amp;TEXT(B145,"000")</f>
-        <v>WE613</v>
+        <f t="shared" si="5"/>
+        <v>WE608</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>788</v>
+        <v>432</v>
       </c>
       <c r="C145" t="s">
-        <v>703</v>
+        <v>437</v>
       </c>
       <c r="D145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E145">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F145">
         <v>2019</v>
@@ -7354,23 +7861,26 @@
       <c r="H145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="str">
-        <f>"WE"&amp;TEXT(B146,"000")</f>
-        <v>WE614</v>
+        <f t="shared" si="5"/>
+        <v>WE609</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C146" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E146">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F146">
         <v>2028</v>
@@ -7381,26 +7891,29 @@
       <c r="H146">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="str">
-        <f>"WE"&amp;TEXT(B147,"000")</f>
-        <v>WE615</v>
+        <f t="shared" si="5"/>
+        <v>WE612</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="C147" t="s">
-        <v>849</v>
+        <v>702</v>
       </c>
       <c r="D147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E147">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F147">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="G147">
         <v>2050</v>
@@ -7408,53 +7921,59 @@
       <c r="H147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="str">
-        <f>"WE"&amp;TEXT(B148,"000")</f>
-        <v>WE616</v>
+        <f t="shared" si="5"/>
+        <v>WE613</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>554</v>
+        <v>788</v>
+      </c>
+      <c r="C148" t="s">
+        <v>703</v>
       </c>
       <c r="D148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E148">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F148">
         <v>2019</v>
       </c>
       <c r="G148">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="H148">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="str">
-        <f>"WE"&amp;RIGHT(B149,3) &amp; LEFT(B149,1)</f>
-        <v>WE618F</v>
+        <f t="shared" si="5"/>
+        <v>WE614</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>180</v>
+        <v>816</v>
       </c>
       <c r="C149" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="D149" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E149">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F149">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="G149">
         <v>2050</v>
@@ -7462,26 +7981,29 @@
       <c r="H149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="str">
-        <f>"WE"&amp;RIGHT(B150,3) &amp; LEFT(B150,1)</f>
-        <v>WE620F</v>
+        <f t="shared" si="5"/>
+        <v>WE615</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>183</v>
+        <v>817</v>
       </c>
       <c r="C150" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="D150" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E150">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F150">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="G150">
         <v>2050</v>
@@ -7489,47 +8011,53 @@
       <c r="H150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="str">
-        <f>"WE"&amp;TEXT(B151,"000")</f>
-        <v>WE625</v>
+        <f t="shared" si="5"/>
+        <v>WE616</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C151" t="s">
-        <v>704</v>
+        <v>789</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>554</v>
       </c>
       <c r="D151" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E151">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F151">
         <v>2019</v>
       </c>
       <c r="G151">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="H151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="str">
-        <f>"WE"&amp;TEXT(B152,"000")</f>
-        <v>WE627</v>
+        <f>"WE"&amp;RIGHT(B152,3) &amp; LEFT(B152,1)</f>
+        <v>WE618F</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>819</v>
+        <v>180</v>
       </c>
       <c r="C152" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="D152" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E152">
         <v>64</v>
@@ -7543,23 +8071,26 @@
       <c r="H152">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="str">
-        <f>"WE"&amp;TEXT(B153,"000")</f>
-        <v>WE628</v>
+        <f>"WE"&amp;RIGHT(B153,3) &amp; LEFT(B153,1)</f>
+        <v>WE620F</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>791</v>
+        <v>183</v>
       </c>
       <c r="C153" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="D153" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E153">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F153">
         <v>2019</v>
@@ -7570,23 +8101,26 @@
       <c r="H153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="str">
-        <f>"WE"&amp;RIGHT(B154,3) &amp; LEFT(B154,1)</f>
-        <v>WE638F</v>
+        <f>"WE"&amp;TEXT(B154,"000")</f>
+        <v>WE625</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>186</v>
+        <v>790</v>
       </c>
       <c r="C154" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="D154" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E154">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F154">
         <v>2019</v>
@@ -7597,23 +8131,26 @@
       <c r="H154">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="str">
         <f>"WE"&amp;TEXT(B155,"000")</f>
-        <v>WE645</v>
+        <v>WE627</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C155" t="s">
-        <v>847</v>
+        <v>739</v>
       </c>
       <c r="D155" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E155">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F155">
         <v>2019</v>
@@ -7624,23 +8161,26 @@
       <c r="H155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="str">
         <f>"WE"&amp;TEXT(B156,"000")</f>
-        <v>WE650</v>
+        <v>WE628</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C156" t="s">
-        <v>555</v>
+        <v>705</v>
       </c>
       <c r="D156" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E156">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F156">
         <v>2019</v>
@@ -7651,23 +8191,26 @@
       <c r="H156">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="str">
-        <f>"WE"&amp;TEXT(B157,"000")</f>
-        <v>WE667</v>
+        <f>"WE"&amp;RIGHT(B157,3) &amp; LEFT(B157,1)</f>
+        <v>WE638F</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>822</v>
+        <v>186</v>
       </c>
       <c r="C157" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="D157" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E157">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F157">
         <v>2019</v>
@@ -7678,24 +8221,29 @@
       <c r="H157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="B158" s="1"/>
-      <c r="C158" t="str">
-        <f>A158 &amp; " - " &amp;D158</f>
-        <v>WFRC_001 - 1300So</v>
+      <c r="I157" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="str">
+        <f>"WE"&amp;TEXT(B158,"000")</f>
+        <v>WE645</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C158" t="s">
+        <v>847</v>
       </c>
       <c r="D158" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="E158">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F158">
-        <v>2050</v>
+        <v>2019</v>
       </c>
       <c r="G158">
         <v>2050</v>
@@ -7703,99 +8251,115 @@
       <c r="H158">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" t="str">
-        <f>A159 &amp; " - " &amp;D159</f>
-        <v>WFRC_002 - 1700So</v>
+      <c r="I158" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="str">
+        <f>"WE"&amp;TEXT(B159,"000")</f>
+        <v>WE650</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C159" t="s">
+        <v>555</v>
       </c>
       <c r="D159" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="E159">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F159">
-        <v>2042</v>
+        <v>2019</v>
       </c>
       <c r="G159">
         <v>2050</v>
       </c>
       <c r="H159">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="B160" s="1"/>
-      <c r="C160" t="str">
-        <f>A160 &amp; " - " &amp;D160</f>
-        <v>WFRC_003 - 200So_2</v>
+        <v>4</v>
+      </c>
+      <c r="I159" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="str">
+        <f>"WE"&amp;TEXT(B160,"000")</f>
+        <v>WE667</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C160" t="s">
+        <v>741</v>
       </c>
       <c r="D160" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="E160">
         <v>32</v>
       </c>
       <c r="F160">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="G160">
         <v>2050</v>
       </c>
       <c r="H160">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I160" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" t="str">
-        <f>A161 &amp; " - " &amp;D161</f>
-        <v>WFRC_004 - 200So_Core</v>
+        <f t="shared" ref="C161:C192" si="6">A161 &amp; " - " &amp;D161</f>
+        <v>WFRC_001 - 1300So</v>
       </c>
       <c r="D161" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F161">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="G161">
         <v>2050</v>
       </c>
       <c r="H161">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I161" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" t="str">
-        <f>A162 &amp; " - " &amp;D162</f>
-        <v>WFRC_005 - 300W</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_002 - 1700So</v>
       </c>
       <c r="D162" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E162">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F162">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="G162">
         <v>2050</v>
@@ -7803,24 +8367,27 @@
       <c r="H162">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" t="str">
-        <f>A163 &amp; " - " &amp;D163</f>
-        <v>WFRC_006 - 3900S</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_003 - 200So_2</v>
       </c>
       <c r="D163" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E163">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F163">
-        <v>2040</v>
+        <v>2024</v>
       </c>
       <c r="G163">
         <v>2050</v>
@@ -7828,18 +8395,21 @@
       <c r="H163">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" t="str">
-        <f>A164 &amp; " - " &amp;D164</f>
-        <v>WFRC_007 - 400SoCore</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_004 - 200So_Core</v>
       </c>
       <c r="D164" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E164">
         <v>6</v>
@@ -7853,24 +8423,27 @@
       <c r="H164">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" t="str">
-        <f>A165 &amp; " - " &amp;D165</f>
-        <v>WFRC_008 - 500E_2</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_005 - 300W</v>
       </c>
       <c r="D165" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E165">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F165">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="G165">
         <v>2050</v>
@@ -7878,24 +8451,27 @@
       <c r="H165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" t="str">
-        <f>A166 &amp; " - " &amp;D166</f>
-        <v>WFRC_009 - 5400S</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_006 - 3900S</v>
       </c>
       <c r="D166" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E166">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F166">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="G166">
         <v>2050</v>
@@ -7903,24 +8479,27 @@
       <c r="H166">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" t="str">
-        <f>A167 &amp; " - " &amp;D167</f>
-        <v>WFRC_010 - 7800FtUn_3</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_007 - 400SoCore</v>
       </c>
       <c r="D167" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E167">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F167">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="G167">
         <v>2050</v>
@@ -7928,24 +8507,27 @@
       <c r="H167">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" t="str">
-        <f>A168 &amp; " - " &amp;D168</f>
-        <v>WFRC_011 - 9000S</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_008 - 500E_2</v>
       </c>
       <c r="D168" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F168">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="G168">
         <v>2050</v>
@@ -7953,18 +8535,21 @@
       <c r="H168">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" t="str">
-        <f>A169 &amp; " - " &amp;D169</f>
-        <v>WFRC_012 - 900E_2</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_009 - 5400S</v>
       </c>
       <c r="D169" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E169">
         <v>36</v>
@@ -7978,24 +8563,27 @@
       <c r="H169">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" t="str">
-        <f>A170 &amp; " - " &amp;D170</f>
-        <v>WFRC_013 - 900So</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_010 - 7800FtUn_3</v>
       </c>
       <c r="D170" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E170">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F170">
-        <v>2024</v>
+        <v>2040</v>
       </c>
       <c r="G170">
         <v>2050</v>
@@ -8003,18 +8591,21 @@
       <c r="H170">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" t="str">
-        <f>A171 &amp; " - " &amp;D171</f>
-        <v>WFRC_014 - 900W</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_011 - 9000S</v>
       </c>
       <c r="D171" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -8028,71 +8619,80 @@
       <c r="H171">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" t="str">
-        <f>A172 &amp; " - " &amp;D172</f>
-        <v>WFRC_015 - Blue_Ext</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_012 - 900E_2</v>
       </c>
       <c r="D172" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F172">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="G172">
         <v>2050</v>
       </c>
       <c r="H172">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I172" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" t="str">
-        <f>A173 &amp; " - " &amp;D173</f>
-        <v>WFRC_016 - Brig_Ex</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_013 - 900So</v>
       </c>
       <c r="D173" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F173">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="G173">
         <v>2050</v>
       </c>
       <c r="H173">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I173" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" t="str">
-        <f>A174 &amp; " - " &amp;D174</f>
-        <v>WFRC_017 - BRT_2700W_T</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_014 - 900W</v>
       </c>
       <c r="D174" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E174">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F174">
         <v>2050</v>
@@ -8101,226 +8701,253 @@
         <v>2050</v>
       </c>
       <c r="H174">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I174" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" t="str">
-        <f>A175 &amp; " - " &amp;D175</f>
-        <v>WFRC_019 - BRT_State850</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_015 - Blue_Ext</v>
       </c>
       <c r="D175" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="G175">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="H175">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I175" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" t="str">
-        <f>A176 &amp; " - " &amp;D176</f>
-        <v>WFRC_020 - BRT_StateSt</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_016 - Brig_Ex</v>
       </c>
       <c r="D176" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E176">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F176">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="G176">
         <v>2050</v>
       </c>
       <c r="H176">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I176" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" t="str">
-        <f>A177 &amp; " - " &amp;D177</f>
-        <v>WFRC_022 - BRTWSU_S</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_017 - BRT_2700W_T</v>
       </c>
       <c r="D177" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E177">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F177">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="G177">
         <v>2050</v>
       </c>
       <c r="H177">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I177" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" t="str">
-        <f>A178 &amp; " - " &amp;D178</f>
-        <v>WFRC_023 - BRT104th_2</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_019 - BRT_State850</v>
       </c>
       <c r="D178" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="E178">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="G178">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="H178">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I178" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" t="str">
-        <f>A179 &amp; " - " &amp;D179</f>
-        <v>WFRC_024 - BRT123RD_A</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_020 - BRT_StateSt</v>
       </c>
       <c r="D179" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="E179">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F179">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="G179">
         <v>2050</v>
       </c>
       <c r="H179">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I179" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" t="str">
-        <f>A180 &amp; " - " &amp;D180</f>
-        <v>WFRC_025 - BRT1300E_T</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_022 - BRTWSU_S</v>
       </c>
       <c r="D180" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E180">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F180">
-        <v>2042</v>
+        <v>2024</v>
       </c>
       <c r="G180">
         <v>2050</v>
       </c>
       <c r="H180">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" t="str">
-        <f>A181 &amp; " - " &amp;D181</f>
-        <v>WFRC_026 - BRT3533S_Core</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_023 - BRT104th_2</v>
       </c>
       <c r="D181" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E181">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F181">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="G181">
         <v>2050</v>
       </c>
       <c r="H181">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I181" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" t="str">
-        <f>A182 &amp; " - " &amp;D182</f>
-        <v>WFRC_027 - BRT47S_S</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_024 - BRT123RD_A</v>
       </c>
       <c r="D182" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E182">
         <v>6</v>
       </c>
       <c r="F182">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="G182">
         <v>2050</v>
       </c>
       <c r="H182">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I182" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" t="str">
-        <f>A183 &amp; " - " &amp;D183</f>
-        <v>WFRC_028 - BRT56_R</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_025 - BRT1300E_T</v>
       </c>
       <c r="D183" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E183">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F183">
-        <v>2030</v>
+        <v>2042</v>
       </c>
       <c r="G183">
         <v>2050</v>
@@ -8328,24 +8955,27 @@
       <c r="H183">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" t="str">
-        <f>A184 &amp; " - " &amp;D184</f>
-        <v>WFRC_029 - BRT62S_T1</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_026 - BRT3533S_Core</v>
       </c>
       <c r="D184" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E184">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F184">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="G184">
         <v>2050</v>
@@ -8353,21 +8983,24 @@
       <c r="H184">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" t="str">
-        <f>A185 &amp; " - " &amp;D185</f>
-        <v>WFRC_030 - BRTFTHLWA_N</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_027 - BRT47S_S</v>
       </c>
       <c r="D185" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E185">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F185">
         <v>2030</v>
@@ -8376,76 +9009,85 @@
         <v>2050</v>
       </c>
       <c r="H185">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I185" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" t="str">
-        <f>A186 &amp; " - " &amp;D186</f>
-        <v>WFRC_031 - BRTFTHLWA_S39</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_028 - BRT56_R</v>
       </c>
       <c r="D186" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F186">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="G186">
         <v>2050</v>
       </c>
       <c r="H186">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I186" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" t="str">
-        <f>A187 &amp; " - " &amp;D187</f>
-        <v>WFRC_032 - BRTNRedwd_T</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_029 - BRT62S_T1</v>
       </c>
       <c r="D187" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E187">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F187">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="G187">
         <v>2050</v>
       </c>
       <c r="H187">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I187" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" t="str">
-        <f>A188 &amp; " - " &amp;D188</f>
-        <v>WFRC_033 - BRTNSDA_R</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_030 - BRTFTHLWA_N</v>
       </c>
       <c r="D188" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E188">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F188">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="G188">
         <v>2050</v>
@@ -8453,46 +9095,52 @@
       <c r="H188">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" t="str">
-        <f>A189 &amp; " - " &amp;D189</f>
-        <v>WFRC_034 - BRTRdwd_South</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_031 - BRTFTHLWA_S39</v>
       </c>
       <c r="D189" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E189">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="G189">
         <v>2050</v>
       </c>
       <c r="H189">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I189" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" t="str">
-        <f>A190 &amp; " - " &amp;D190</f>
-        <v>WFRC_035 - BRTRdwd_T</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_032 - BRTNRedwd_T</v>
       </c>
       <c r="D190" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E190">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F190">
         <v>2030</v>
@@ -8501,26 +9149,29 @@
         <v>2050</v>
       </c>
       <c r="H190">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I190" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" t="str">
-        <f>A191 &amp; " - " &amp;D191</f>
-        <v>WFRC_036 - BRTWash_R</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_033 - BRTNSDA_R</v>
       </c>
       <c r="D191" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E191">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F191">
-        <v>2042</v>
+        <v>2032</v>
       </c>
       <c r="G191">
         <v>2050</v>
@@ -8528,24 +9179,27 @@
       <c r="H191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" t="str">
-        <f>A192 &amp; " - " &amp;D192</f>
-        <v>WFRC_037 - Cedar_Exp</v>
+        <f t="shared" si="6"/>
+        <v>WFRC_034 - BRTRdwd_South</v>
       </c>
       <c r="D192" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E192">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F192">
-        <v>2032</v>
+        <v>2040</v>
       </c>
       <c r="G192">
         <v>2050</v>
@@ -8553,46 +9207,52 @@
       <c r="H192">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" t="str">
-        <f>A193 &amp; " - " &amp;D193</f>
-        <v>WFRC_038 - CG_BRT_S1</v>
+        <f t="shared" ref="C193:C218" si="7">A193 &amp; " - " &amp;D193</f>
+        <v>WFRC_035 - BRTRdwd_T</v>
       </c>
       <c r="D193" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E193">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F193">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="G193">
         <v>2050</v>
       </c>
       <c r="H193">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I193" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" t="str">
-        <f>A194 &amp; " - " &amp;D194</f>
-        <v>WFRC_039 - Clear</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_036 - BRTWash_R</v>
       </c>
       <c r="D194" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E194">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F194">
         <v>2042</v>
@@ -8603,24 +9263,27 @@
       <c r="H194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" t="str">
-        <f>A195 &amp; " - " &amp;D195</f>
-        <v>WFRC_040 - ClearRoyWest</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_037 - Cedar_Exp</v>
       </c>
       <c r="D195" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E195">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F195">
-        <v>2050</v>
+        <v>2032</v>
       </c>
       <c r="G195">
         <v>2050</v>
@@ -8628,49 +9291,55 @@
       <c r="H195">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" t="str">
-        <f>A196 &amp; " - " &amp;D196</f>
-        <v>WFRC_047 - DavisSLCCon</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_038 - CG_BRT_S1</v>
       </c>
       <c r="D196" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F196">
-        <v>2024</v>
+        <v>2032</v>
       </c>
       <c r="G196">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="H196">
         <v>9</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" t="str">
-        <f>A197 &amp; " - " &amp;D197</f>
-        <v>WFRC_048 - FthlDr2100</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_039 - Clear</v>
       </c>
       <c r="D197" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E197">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F197">
-        <v>2024</v>
+        <v>2042</v>
       </c>
       <c r="G197">
         <v>2050</v>
@@ -8678,21 +9347,24 @@
       <c r="H197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" t="str">
-        <f>A198 &amp; " - " &amp;D198</f>
-        <v>WFRC_049 - HinckleyUnion</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_040 - ClearRoyWest</v>
       </c>
       <c r="D198" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E198">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F198">
         <v>2050</v>
@@ -8701,51 +9373,57 @@
         <v>2050</v>
       </c>
       <c r="H198">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I198" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" t="str">
-        <f>A199 &amp; " - " &amp;D199</f>
-        <v>WFRC_050 - LakePark</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_047 - DavisSLCCon</v>
       </c>
       <c r="D199" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E199">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F199">
-        <v>2042</v>
+        <v>2024</v>
       </c>
       <c r="G199">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="H199">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I199" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" t="str">
-        <f>A200 &amp; " - " &amp;D200</f>
-        <v>WFRC_051 - LittleCott</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_048 - FthlDr2100</v>
       </c>
       <c r="D200" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E200">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F200">
-        <v>2032</v>
+        <v>2024</v>
       </c>
       <c r="G200">
         <v>2050</v>
@@ -8753,24 +9431,27 @@
       <c r="H200">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" t="str">
-        <f>A201 &amp; " - " &amp;D201</f>
-        <v>WFRC_053 - MidValCon</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_049 - HinckleyUnion</v>
       </c>
       <c r="D201" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E201">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F201">
-        <v>2028</v>
+        <v>2050</v>
       </c>
       <c r="G201">
         <v>2050</v>
@@ -8778,74 +9459,83 @@
       <c r="H201">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" t="str">
-        <f>A202 &amp; " - " &amp;D202</f>
-        <v>WFRC_054 - MTTrolley</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_050 - LakePark</v>
       </c>
       <c r="D202" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="E202">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F202">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="G202">
         <v>2050</v>
       </c>
       <c r="H202">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I202" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" t="str">
-        <f>A203 &amp; " - " &amp;D203</f>
-        <v>WFRC_055 - Orange</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_051 - LittleCott</v>
       </c>
       <c r="D203" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="E203">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F203">
-        <v>2042</v>
+        <v>2032</v>
       </c>
       <c r="G203">
         <v>2050</v>
       </c>
       <c r="H203">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I203" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" t="str">
-        <f>A204 &amp; " - " &amp;D204</f>
-        <v>WFRC_074 - PlsntClear</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_053 - MidValCon</v>
       </c>
       <c r="D204" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="E204">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F204">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G204">
         <v>2050</v>
@@ -8853,49 +9543,55 @@
       <c r="H204">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" t="str">
-        <f>A205 &amp; " - " &amp;D205</f>
-        <v>WFRC_075 - RDELTA2U_R</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_054 - MTTrolley</v>
       </c>
       <c r="D205" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="E205">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F205">
-        <v>2032</v>
+        <v>2050</v>
       </c>
       <c r="G205">
         <v>2050</v>
       </c>
       <c r="H205">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I205" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" t="str">
-        <f>A206 &amp; " - " &amp;D206</f>
-        <v>WFRC_076 - RGRANSUG_U</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_055 - Orange</v>
       </c>
       <c r="D206" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="E206">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F206">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="G206">
         <v>2050</v>
@@ -8903,49 +9599,55 @@
       <c r="H206">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" t="str">
-        <f>A207 &amp; " - " &amp;D207</f>
-        <v>WFRC_078 - ShldSego_3</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_074 - PlsntClear</v>
       </c>
       <c r="D207" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="E207">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F207">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="G207">
         <v>2050</v>
       </c>
       <c r="H207">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I207" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" t="str">
-        <f>A208 &amp; " - " &amp;D208</f>
-        <v>WFRC_079 - Sline_Ext</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_075 - RDELTA2U_R</v>
       </c>
       <c r="D208" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F208">
-        <v>2050</v>
+        <v>2032</v>
       </c>
       <c r="G208">
         <v>2050</v>
@@ -8953,21 +9655,24 @@
       <c r="H208">
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" t="str">
-        <f>A209 &amp; " - " &amp;D209</f>
-        <v>WFRC_080 - Sline_Mill</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_076 - RGRANSUG_U</v>
       </c>
       <c r="D209" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="E209">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F209">
         <v>2032</v>
@@ -8976,73 +9681,82 @@
         <v>2050</v>
       </c>
       <c r="H209">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I209" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" t="str">
-        <f>A210 &amp; " - " &amp;D210</f>
-        <v>WFRC_081 - SoJoSandyC</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_078 - ShldSego_3</v>
       </c>
       <c r="D210" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E210">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F210">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="G210">
         <v>2050</v>
       </c>
       <c r="H210">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I210" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" t="str">
-        <f>A211 &amp; " - " &amp;D211</f>
-        <v>WFRC_082 - StGrid_2</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_079 - Sline_Ext</v>
       </c>
       <c r="D211" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E211">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F211">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="G211">
         <v>2050</v>
       </c>
       <c r="H211">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I211" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" t="str">
-        <f>A212 &amp; " - " &amp;D212</f>
-        <v>WFRC_083 - StGrid_2_BRT</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_080 - Sline_Mill</v>
       </c>
       <c r="D212" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E212">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F212">
         <v>2032</v>
@@ -9051,88 +9765,184 @@
         <v>2050</v>
       </c>
       <c r="H212">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I212" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" t="str">
-        <f>A213 &amp; " - " &amp;D213</f>
-        <v>WFRC_084 - StGrid_2_Core</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_081 - SoJoSandyC</v>
       </c>
       <c r="D213" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E213">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F213">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="G213">
-        <v>2032</v>
+        <v>2050</v>
       </c>
       <c r="H213">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" t="str">
-        <f>A214 &amp; " - " &amp;D214</f>
-        <v>WFRC_085 - TooeleCor</v>
+        <f t="shared" si="7"/>
+        <v>WFRC_082 - StGrid_2</v>
       </c>
       <c r="D214" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F214">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="G214">
         <v>2050</v>
       </c>
       <c r="H214">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I214" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" t="str">
-        <f>A215 &amp; " - " &amp;D215</f>
+        <f t="shared" si="7"/>
+        <v>WFRC_083 - StGrid_2_BRT</v>
+      </c>
+      <c r="D215" t="s">
+        <v>380</v>
+      </c>
+      <c r="E215">
+        <v>24</v>
+      </c>
+      <c r="F215">
+        <v>2032</v>
+      </c>
+      <c r="G215">
+        <v>2050</v>
+      </c>
+      <c r="H215">
+        <v>9</v>
+      </c>
+      <c r="I215" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" t="str">
+        <f t="shared" si="7"/>
+        <v>WFRC_084 - StGrid_2_Core</v>
+      </c>
+      <c r="D216" t="s">
+        <v>381</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+      <c r="F216">
+        <v>2032</v>
+      </c>
+      <c r="G216">
+        <v>2032</v>
+      </c>
+      <c r="H216">
+        <v>5</v>
+      </c>
+      <c r="I216" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" t="str">
+        <f t="shared" si="7"/>
+        <v>WFRC_085 - TooeleCor</v>
+      </c>
+      <c r="D217" t="s">
+        <v>382</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>2050</v>
+      </c>
+      <c r="G217">
+        <v>2050</v>
+      </c>
+      <c r="H217">
+        <v>6</v>
+      </c>
+      <c r="I217" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" t="str">
+        <f t="shared" si="7"/>
         <v>WFRC_086 - WDraperCon</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D218" t="s">
         <v>383</v>
       </c>
-      <c r="E215">
+      <c r="E218">
         <v>2</v>
       </c>
-      <c r="F215">
-        <v>2050</v>
-      </c>
-      <c r="G215">
-        <v>2050</v>
-      </c>
-      <c r="H215">
+      <c r="F218">
+        <v>2050</v>
+      </c>
+      <c r="G218">
+        <v>2050</v>
+      </c>
+      <c r="H218">
         <v>5</v>
       </c>
+      <c r="I218" t="s">
+        <v>383</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H215" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H215">
-      <sortCondition ref="A1:A215"/>
+  <autoFilter ref="A1:H218" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H218">
+      <sortCondition ref="A1:A218"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
